--- a/test/TestFile/test/allTest/提取词条EN.xlsx
+++ b/test/TestFile/test/allTest/提取词条EN.xlsx
@@ -387,7 +387,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>D:/Git/translate/test/TestFile/test/allTest/html/hello.html</v>
+        <v>D:/git/reasyTeam/b28-cli/test/TestFile/test/allTest/html/hello.html</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>D:/Git/translate/test/TestFile/test/allTest/js/hello.js</v>
+        <v>D:/git/reasyTeam/b28-cli/test/TestFile/test/allTest/js/hello.js</v>
       </c>
     </row>
     <row r="22">
